--- a/tableClient/question6.xlsx
+++ b/tableClient/question6.xlsx
@@ -3004,7 +3004,7 @@
         <v>0</v>
       </c>
       <c r="C242" t="str">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="243">
@@ -3059,7 +3059,7 @@
         <v>0</v>
       </c>
       <c r="C247" t="str">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="248">
@@ -3070,7 +3070,7 @@
         <v>0</v>
       </c>
       <c r="C248" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="249">
@@ -3144,10 +3144,10 @@
         <v>118</v>
       </c>
       <c r="B255" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C255" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="256">
@@ -3158,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="C256" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="257">
@@ -3235,7 +3235,7 @@
         <v>0</v>
       </c>
       <c r="C263" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="264">
@@ -3246,7 +3246,7 @@
         <v>0</v>
       </c>
       <c r="C264" t="str">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="265">
@@ -3268,7 +3268,7 @@
         <v>0</v>
       </c>
       <c r="C266" t="str">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="267">
@@ -3279,7 +3279,7 @@
         <v>0</v>
       </c>
       <c r="C267" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="268">
@@ -3378,7 +3378,7 @@
         <v>0</v>
       </c>
       <c r="C276" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="277">
@@ -3397,10 +3397,10 @@
         <v>95</v>
       </c>
       <c r="B278" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C278" t="str">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="279">
@@ -3419,10 +3419,10 @@
         <v>93</v>
       </c>
       <c r="B280" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C280" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="281">
@@ -3444,7 +3444,7 @@
         <v>0</v>
       </c>
       <c r="C282" t="str">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="283">
@@ -3463,7 +3463,7 @@
         <v>89</v>
       </c>
       <c r="B284" t="str">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C284" t="str">
         <v>0</v>
@@ -3510,7 +3510,7 @@
         <v>0</v>
       </c>
       <c r="C288" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="289">
@@ -3587,7 +3587,7 @@
         <v>0</v>
       </c>
       <c r="C295" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="296">
@@ -3606,7 +3606,7 @@
         <v>76</v>
       </c>
       <c r="B297" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C297" t="str">
         <v>0</v>
@@ -3642,7 +3642,7 @@
         <v>0</v>
       </c>
       <c r="C300" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="301">
@@ -3672,7 +3672,7 @@
         <v>70</v>
       </c>
       <c r="B303" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C303" t="str">
         <v>0</v>
@@ -3686,7 +3686,7 @@
         <v>0</v>
       </c>
       <c r="C304" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="305">
@@ -3719,7 +3719,7 @@
         <v>0</v>
       </c>
       <c r="C307" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="308">
@@ -3749,10 +3749,10 @@
         <v>63</v>
       </c>
       <c r="B310" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C310" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="311">
@@ -3763,7 +3763,7 @@
         <v>0</v>
       </c>
       <c r="C311" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="312">
@@ -3774,7 +3774,7 @@
         <v>0</v>
       </c>
       <c r="C312" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="313">
@@ -3807,7 +3807,7 @@
         <v>0</v>
       </c>
       <c r="C315" t="str">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="316">
@@ -3917,7 +3917,7 @@
         <v>0</v>
       </c>
       <c r="C325" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="326">
@@ -3936,7 +3936,7 @@
         <v>46</v>
       </c>
       <c r="B327" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C327" t="str">
         <v>0</v>
@@ -4024,7 +4024,7 @@
         <v>38</v>
       </c>
       <c r="B335" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C335" t="str">
         <v>0</v>
@@ -4082,7 +4082,7 @@
         <v>0</v>
       </c>
       <c r="C340" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="341">
@@ -4148,7 +4148,7 @@
         <v>0</v>
       </c>
       <c r="C346" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="347">
@@ -4225,7 +4225,7 @@
         <v>0</v>
       </c>
       <c r="C353" t="str">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="354">
@@ -4236,7 +4236,7 @@
         <v>0</v>
       </c>
       <c r="C354" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="355">
@@ -4335,7 +4335,7 @@
         <v>0</v>
       </c>
       <c r="C363" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="364">
@@ -4346,7 +4346,7 @@
         <v>0</v>
       </c>
       <c r="C364" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="365">
@@ -4379,7 +4379,7 @@
         <v>0</v>
       </c>
       <c r="C367" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="368">
@@ -4390,7 +4390,7 @@
         <v>0</v>
       </c>
       <c r="C368" t="str">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="369">
@@ -4409,10 +4409,10 @@
         <v>3</v>
       </c>
       <c r="B370" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C370" t="str">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="371">
